--- a/PCB modules/breakout/harp expander breakout BOM_simplified.xlsx
+++ b/PCB modules/breakout/harp expander breakout BOM_simplified.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEPS\Documents\github\harp-tech\harp_expander\PCB modules\breakout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA80C39-DAE2-4936-B01E-E32573706136}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9902A7BB-3779-4740-9860-CB48ACE0A8C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6435" yWindow="5835" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="harp expander v1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>R0603</t>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
     <t>C0603</t>
   </si>
   <si>
@@ -84,18 +81,6 @@
     <t>R3, R4</t>
   </si>
   <si>
-    <t>CR0603-JW-272ELF</t>
-  </si>
-  <si>
-    <t>2.7k</t>
-  </si>
-  <si>
-    <t>C1608X7S1C155K080AC</t>
-  </si>
-  <si>
-    <t>1.5uF</t>
-  </si>
-  <si>
     <t>SWITCH</t>
   </si>
   <si>
@@ -126,12 +111,6 @@
     <t>TERMINAL BLOCK 2WAY</t>
   </si>
   <si>
-    <t>CRGH0603J270R</t>
-  </si>
-  <si>
-    <t>270R 200mW</t>
-  </si>
-  <si>
     <t>IDC 10WAY STRAIGHT</t>
   </si>
   <si>
@@ -145,6 +124,27 @@
   </si>
   <si>
     <t>NOTES</t>
+  </si>
+  <si>
+    <t>C1, C2</t>
+  </si>
+  <si>
+    <t>2.2k 100mW</t>
+  </si>
+  <si>
+    <t>ERJ3GEYJ222V</t>
+  </si>
+  <si>
+    <t>4.3k 100mW</t>
+  </si>
+  <si>
+    <t>ERJ3GEYJ432V</t>
+  </si>
+  <si>
+    <t>1uF 25V</t>
+  </si>
+  <si>
+    <t>CL10A105KA8NNNC</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1065,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,12 +1095,12 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1119,13 +1119,13 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1133,19 +1133,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1153,19 +1153,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1173,17 +1173,17 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E6" s="5">
         <v>1301.9306999999999</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1191,16 +1191,16 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1208,16 +1208,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1242,21 +1242,21 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" s="1">
         <v>8</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1">
         <v>6</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" s="1">
         <v>7</v>

--- a/PCB modules/breakout/harp expander breakout BOM_simplified.xlsx
+++ b/PCB modules/breakout/harp expander breakout BOM_simplified.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEPS\Documents\github\harp-tech\harp_expander\PCB modules\breakout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9902A7BB-3779-4740-9860-CB48ACE0A8C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB49C73-0493-422C-8C4A-E61318FEB937}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="5835" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2850" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="harp expander v1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Qty</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>CL10A105KA8NNNC</t>
+  </si>
+  <si>
+    <t>B3F-4000</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1068,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,8 +1182,8 @@
       <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="5">
-        <v>1301.9306999999999</v>
+      <c r="E6" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>

--- a/PCB modules/breakout/harp expander breakout BOM_simplified.xlsx
+++ b/PCB modules/breakout/harp expander breakout BOM_simplified.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEPS\Documents\github\harp-tech\harp_expander\PCB modules\breakout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB49C73-0493-422C-8C4A-E61318FEB937}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5013804-BAA1-436E-8E61-C20F80BB16DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4695" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="harp expander v1" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,6 @@
     <t>SBH11-PBPC-D05-ST-BK</t>
   </si>
   <si>
-    <t>20.155MH/8-E</t>
-  </si>
-  <si>
     <t>SV2</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>IDC 10WAY STRAIGHT</t>
   </si>
   <si>
-    <t>20.155MH/2</t>
-  </si>
-  <si>
     <t>SW0, SW1</t>
   </si>
   <si>
@@ -148,6 +142,12 @@
   </si>
   <si>
     <t>B3F-4000</t>
+  </si>
+  <si>
+    <t>691322110008</t>
+  </si>
+  <si>
+    <t>691322110002</t>
   </si>
 </sst>
 </file>
@@ -685,7 +685,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -701,6 +701,7 @@
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1068,7 +1069,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,7 +1104,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1116,7 +1117,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1125,7 +1126,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
@@ -1136,7 +1137,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1145,7 +1146,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
@@ -1156,16 +1157,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>12</v>
@@ -1180,10 +1181,10 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
@@ -1211,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -1228,13 +1229,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="5" t="s">
         <v>21</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>13</v>
@@ -1245,13 +1246,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>13</v>
@@ -1259,7 +1260,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1298,5 +1299,8 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E9:E10" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>